--- a/Output_testing/R1_201907/Country/HKD/MN/CHILE_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/CHILE_201907_HKD_MN.xlsx
@@ -810,136 +810,433 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>3391.818957</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>66.17662789896033</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>3001.557343</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>65.42228179336161</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>4080.040335</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>68.9027437092449</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>2628.969921</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>71.44248956540066</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>13.69675727580915</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>335.546285</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>6.54672962408456</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>415.173739</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>9.049173559654216</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>488.44384</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>8.248722551876298</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>207.753193</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>5.645711350487972</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>-21.82446830345489</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>761</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>TELEVISION RECEIVERS (INCLUDING VIDEO MONITORS AND VIDEO PROJECTORS)</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>45.209414</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>0.8820655246452909</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>13.715191</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>0.2989378472293197</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>170.515862</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>2.879631026428804</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>169.076839</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>4.594678018002484</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>153.125251045269</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>61.44741</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>1.198879550611832</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>58.378008</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>1.272413635147772</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>123.444089</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>2.084694201139121</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>79.746098</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>2.167107249397251</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>68.27013550386194</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>151.318413</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>2.952322172354143</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>77.982302</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>1.699711034419183</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>84.54107399999999</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>1.427709403938113</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>72.841025</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>1.979461281366097</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>79.77079151738629</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>311.78703</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>6.083170867787559</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>222.236082</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>4.843882664831907</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>146.485353</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>2.473809547502247</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>44.425537</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>1.207267887778858</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>-45.87838981597717</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>80.104933</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>1.56290014626867</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>89.56002599999999</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>1.952060410259099</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>78.581627</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>1.327067690725778</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>39.940799</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>1.085394736926419</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>-12.82701084627237</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>60.517704</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>1.180740372549142</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>71.50664399999999</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>1.558566863556866</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>71.203192</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>1.20246244812091</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>34.06273</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>0.9256576932110362</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>-12.38843699274855</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>842</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>46.530346</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0.9078377803440874</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>28.900095</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>0.6299097244816224</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>32.907889</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>0.5557405455844052</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>33.824693</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>0.9191890167332883</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>73.00192597772421</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>841</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>54.872855</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>1.070605640549996</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>43.846289</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>0.9556786516975668</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>43.335473</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0.7318390860069529</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>31.723849</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>0.8620983956692618</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>49.43966688607262</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>586.249782</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>11.43812042184438</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>565.118379</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>12.31738381536085</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>601.94955</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>10.16557978943247</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>337.476174</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>9.170944805026675</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>0.7099436198466424</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1268,547 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>1.384314099811127</v>
+      </c>
+      <c r="E31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>2.917418904312988</v>
+      </c>
+      <c r="G31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>45.36932440402891</v>
+      </c>
+      <c r="K31" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>TUBES, PIPES AND HOSES OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>4.023667</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>55.58124574455403</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>7.00043</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>83.42157602277508</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>4.428578</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>81.67413066118456</v>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>42.08445154119564</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>-75.62203747807392</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>1.068245577271578</v>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>1.107091232573409</v>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>0.8867900483433732</v>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>6.054908133525152</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>66.41272854431013</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>5.449678302443636</v>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>5.408329490218229</v>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>5.953871942161312</v>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>2.824563524051958</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>-89.23632635957181</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>2.117332077971767</v>
+      </c>
+      <c r="K35" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>598</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS CHEMICAL PRODUCTS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>0.3315259184891038</v>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>0.5103180192644338</v>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>0.3457050049121647</v>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>1.283231562407132</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>0.3910415926057675</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>0.7777598047754375</v>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>1.062987762806511</v>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>0.1570413696770201</v>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="n">
+        <v>0.1091473871424196</v>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>684</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>ALUMINIUM</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="n">
+        <v>2.458558</v>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>33.96148746286391</v>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>5.333493016255483</v>
+      </c>
+      <c r="G39" s="8" t="n">
+        <v>0.520298</v>
+      </c>
+      <c r="H39" s="9" t="n">
+        <v>9.595605369207227</v>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>1.44574308979117</v>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="n">
+        <v>1.281459939254033</v>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>0.2387855517938708</v>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="n">
+        <v>0.2624370349373222</v>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1840,433 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>3391.818957</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>66.27022969906953</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>3001.557343</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>65.54216162660006</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>4080.040335</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>68.9658955795761</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>2628.969921</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>71.46385870759234</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>13.69675727580915</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>335.546285</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>6.555989474534754</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>415.173739</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>9.065755271382089</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>488.44384</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>8.256282806068674</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>207.753193</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>5.647400037561388</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>-21.82446830345489</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>761</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>TELEVISION RECEIVERS (INCLUDING VIDEO MONITORS AND VIDEO PROJECTORS)</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>45.209414</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>0.8833131391512326</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>13.715191</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>0.2994856211420014</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>170.515862</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>2.882270312985376</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>169.076839</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>4.596052330802737</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>153.125251045269</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>61.342749</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>1.198530380936947</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>58.378008</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>1.274745206750145</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>123.374605</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>2.085430394550608</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>79.746098</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>2.167755452213792</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>68.3627796473705</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>151.318413</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>2.956498007216211</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>77.982302</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>1.702825586063887</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>84.54107399999999</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>1.429017951526995</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>72.83982399999999</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>1.98002071040884</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>79.76782746353597</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>311.78703</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>6.091775049681899</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>222.236082</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>4.852758598690661</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>146.485353</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>2.476076883915253</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>44.425537</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>1.207628993324232</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-45.87838981597717</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>80.104933</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>1.565110749494102</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>89.53998799999999</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>1.955199816264123</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>78.581627</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>1.328283996524558</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>39.940799</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>1.085719389029231</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>-12.82701084627237</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>60.517704</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>1.182410439880179</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>71.50664399999999</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>1.56142278252778</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>71.203192</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>1.20356454868344</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>34.039432</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>0.9253012518337964</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>-12.4483609681593</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>842</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>46.530346</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>0.9091218477428837</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>28.900095</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>0.6310639714851839</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>32.907889</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>0.5562499020045303</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>33.824693</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>0.9194639550916669</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>73.00192597772421</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>841</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>54.872855</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>1.072119930690551</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>43.846289</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>0.9574298379028557</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>43.335473</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>0.7325098431433863</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>31.723849</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>0.8623562576686453</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>49.43966688607262</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>579.11519</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>11.31490128160172</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>556.746787</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>12.15715168119121</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>596.596781</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>10.08441778102108</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>336.400326</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>9.144442914473345</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>1.223425638065256</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2298,441 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>057</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>FRUIT AND NUTS (NOT INCLUDING OIL NUTS), FRESH OR DRIED</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>5800.709902</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>91.03462179379476</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>4820.761326</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>89.32448469306679</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>8218.918110000001</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>92.98100771048746</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>8771.845429000001</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>96.30511654900991</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>19.71407794540354</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>ALCOHOLIC BEVERAGES</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>155.023038</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>2.432885607464924</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>165.26384</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>3.062194194676345</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>144.63416</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>1.636253064718743</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>82.190854</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>0.9023642559368515</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>-7.252602951390341</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>NON-FERROUS BASE METAL WASTE AND SCRAP, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>4.415617</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>0.06929738434991481</v>
+      </c>
+      <c r="E59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F59" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>1.963416</v>
+      </c>
+      <c r="H59" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>49.814012</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>0.5469025041838523</v>
+      </c>
+      <c r="K59" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>034</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>FISH, FRESH (LIVE OR DEAD), CHILLED OR FROZEN</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>77.001845</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>1.20844413105067</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>72.348011</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>1.340545271612837</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>97.56544700000001</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>1.103762497493013</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>43.478849</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>0.4773494533452071</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>-41.44530022730679</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>012</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MEAT AND EDIBLE MEAT OFFAL, FRESH, CHILLED OR FROZEN (EXCEPT MEAT AND MEAT OFFAL UNFIT FOR HUMAN CONSUMPTION)</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>34.720197</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>0.5448884801860666</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>65.46601099999999</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>1.213027839803418</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>78.203011</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>0.8847143470047709</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>37.548289</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>0.4122384938984436</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>-22.84827597798427</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>037</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>FISH, CRUSTACEANS, MOLLUSCS AND OTHER AQUATIC INVERTEBRATES, PREPARED OR PRESERVED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>46.146113</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>0.7242034190953608</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>48.356483</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>0.8960032728125243</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>71.779833</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>0.8120486317426641</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>35.235625</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>0.386848012743546</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>21.53139814124929</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>017</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>MEAT AND EDIBLE MEAT OFFAL, PREPARED OR PRESERVED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>15.312653</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>0.2403122373063325</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>16.453295</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>0.3048651443189105</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>20.31426</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>0.2298161802335864</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>14.483658</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>0.1590144722722291</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>26.38638024577165</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>15.167009</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>0.2380265435411669</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>27.865713</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>0.5163272533127462</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>22.177325</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>0.2508931223337114</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>13.315258</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>0.1461867384633479</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>12.47217497374926</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>68.976277</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>1.082493245744635</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>28.948024</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>0.5363815281077308</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>36.60354</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>0.4140975721403235</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>10.051778</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>0.1103573540653613</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>-55.42445222350953</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>71.990244</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>1.129793550462404</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>37.722581</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>0.6989663833686075</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>30.661043</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>0.3468698236725208</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>10.029605</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>0.1101139191614377</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>-41.5699065827384</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>82.519311</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>1.295033607003767</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>113.641343</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>2.105674543262599</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>116.531366</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>1.318324832483291</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>40.39646</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>0.4435082469198189</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-52.6708853491029</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
